--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value998.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value998.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.285529104484743</v>
+        <v>1.763346076011658</v>
       </c>
       <c r="B1">
-        <v>2.734774696133513</v>
+        <v>1.878540635108948</v>
       </c>
       <c r="C1">
-        <v>4.883679697832422</v>
+        <v>1.94161069393158</v>
       </c>
       <c r="D1">
-        <v>2.048427747355035</v>
+        <v>2.525208473205566</v>
       </c>
       <c r="E1">
-        <v>0.9137819950920535</v>
+        <v>2.744461059570312</v>
       </c>
     </row>
   </sheetData>
